--- a/Tables/oc_reg.xlsx
+++ b/Tables/oc_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B2C269-9759-4B2E-82EA-BDCE3BAECFD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF015BEC-FAC7-47DA-A131-CDEE95CFD404}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13872" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="oc_reg" sheetId="2" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>Controls</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Fee</t>
@@ -57,13 +48,22 @@
     <t>Promise</t>
   </si>
   <si>
-    <t>FC HTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constant </t>
   </si>
   <si>
-    <t>Take-up</t>
+    <t>\checkmark</t>
+  </si>
+  <si>
+    <t>Take-up (choice arms)</t>
+  </si>
+  <si>
+    <t>Financing Cost (hte)</t>
+  </si>
+  <si>
+    <t>OC (dummy)</t>
+  </si>
+  <si>
+    <t>Branch/Day FE</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,9 +203,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>OC</v>
-          </cell>
           <cell r="B5" t="str">
             <v>0.039</v>
           </cell>
@@ -664,29 +664,29 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -722,9 +722,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>[1]oc_reg!A5</f>
-        <v>OC</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]oc_reg!B5</f>
@@ -783,7 +782,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]oc_reg!B83</f>
@@ -924,56 +923,50 @@
         <f>[1]oc_reg!E88</f>
         <v>0.15</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="9" t="str">
         <f>[1]oc_reg!F88</f>
         <v>-121.9</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/Tables/oc_reg.xlsx
+++ b/Tables/oc_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322FE304-4915-43B6-A08F-BE273F4C11D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEAD7A-7684-447C-B867-E74A936AE8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
+    <workbookView xWindow="-6816" yWindow="1224" windowWidth="13824" windowHeight="7152" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="oc_reg" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -160,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,22 +209,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.039</v>
+            <v>0.021</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.16**</v>
+            <v>-0.12</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.010</v>
+            <v>-0.021</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.16*</v>
+            <v>-0.16</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-24.4**</v>
+            <v>-29.9</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-27.3**</v>
+            <v>-32.3</v>
           </cell>
         </row>
         <row r="6">
@@ -230,10 +232,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.094)</v>
+            <v>(0.092)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.072)</v>
+            <v>(0.067)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.14)</v>
@@ -242,30 +244,30 @@
             <v>(0.084)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(11.8)</v>
+            <v>(9.62)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(12.0)</v>
+            <v>(9.75)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>0.61***</v>
+            <v>0.53</v>
           </cell>
           <cell r="C83" t="str">
-            <v>0.19**</v>
+            <v>0.23</v>
           </cell>
           <cell r="D83" t="str">
-            <v>0.49***</v>
+            <v>0.52</v>
           </cell>
           <cell r="E83" t="str">
-            <v>0.24*</v>
+            <v>0.24</v>
           </cell>
           <cell r="F83" t="str">
-            <v>-139.8***</v>
+            <v>-137.6</v>
           </cell>
           <cell r="G83" t="str">
-            <v>-151.2***</v>
+            <v>-149.9</v>
           </cell>
         </row>
         <row r="84">
@@ -273,7 +275,7 @@
             <v>(0.12)</v>
           </cell>
           <cell r="C84" t="str">
-            <v>(0.080)</v>
+            <v>(0.081)</v>
           </cell>
           <cell r="D84" t="str">
             <v>(0.18)</v>
@@ -282,24 +284,24 @@
             <v>(0.13)</v>
           </cell>
           <cell r="F84" t="str">
-            <v>(17.7)</v>
+            <v>(14.8)</v>
           </cell>
           <cell r="G84" t="str">
-            <v>(18.9)</v>
+            <v>(16.5)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>845</v>
+            <v>840</v>
           </cell>
           <cell r="C86" t="str">
-            <v>1039</v>
+            <v>1029</v>
           </cell>
           <cell r="D86" t="str">
             <v>678</v>
           </cell>
           <cell r="E86" t="str">
-            <v>780</v>
+            <v>781</v>
           </cell>
           <cell r="F86" t="str">
             <v>1266</v>
@@ -313,10 +315,10 @@
             <v>R-sq</v>
           </cell>
           <cell r="B87" t="str">
-            <v>0.189</v>
+            <v>0.190</v>
           </cell>
           <cell r="C87" t="str">
-            <v>0.137</v>
+            <v>0.138</v>
           </cell>
           <cell r="D87" t="str">
             <v>0.225</v>
@@ -325,10 +327,10 @@
             <v>0.162</v>
           </cell>
           <cell r="F87" t="str">
-            <v>0.107</v>
+            <v>0.108</v>
           </cell>
           <cell r="G87" t="str">
-            <v>0.111</v>
+            <v>0.112</v>
           </cell>
         </row>
         <row r="88">
@@ -667,16 +669,16 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -699,16 +701,16 @@
         <f>[1]oc_reg!A2</f>
         <v/>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5" t="str">
@@ -726,27 +728,27 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]oc_reg!C5</f>
-        <v>-0.16**</v>
+        <v>-0.12</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]oc_reg!E5</f>
-        <v>-0.16*</v>
+        <v>-0.16</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]oc_reg!B5</f>
-        <v>0.039</v>
+        <v>0.021</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]oc_reg!D5</f>
-        <v>0.010</v>
+        <v>-0.021</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]oc_reg!F5</f>
-        <v>-24.4**</v>
+        <v>-29.9</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]oc_reg!G5</f>
-        <v>-27.3**</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,7 +758,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]oc_reg!C6</f>
-        <v>(0.072)</v>
+        <v>(0.067)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]oc_reg!E6</f>
@@ -764,7 +766,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]oc_reg!B6</f>
-        <v>(0.094)</v>
+        <v>(0.092)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]oc_reg!D6</f>
@@ -772,11 +774,11 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]oc_reg!F6</f>
-        <v>(11.8)</v>
+        <v>(9.62)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]oc_reg!G6</f>
-        <v>(12.0)</v>
+        <v>(9.75)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,33 +787,33 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]oc_reg!C83</f>
-        <v>0.19**</v>
+        <v>0.23</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]oc_reg!E83</f>
-        <v>0.24*</v>
+        <v>0.24</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]oc_reg!B83</f>
-        <v>0.61***</v>
+        <v>0.53</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]oc_reg!D83</f>
-        <v>0.49***</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]oc_reg!F83</f>
-        <v>-139.8***</v>
+        <v>-137.6</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]oc_reg!G83</f>
-        <v>-151.2***</v>
+        <v>-149.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="str">
         <f>[1]oc_reg!C84</f>
-        <v>(0.080)</v>
+        <v>(0.081)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]oc_reg!E84</f>
@@ -827,11 +829,11 @@
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]oc_reg!F84</f>
-        <v>(17.7)</v>
+        <v>(14.8)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]oc_reg!G84</f>
-        <v>(18.9)</v>
+        <v>(16.5)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -848,15 +850,15 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>[1]oc_reg!C86</f>
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>[1]oc_reg!E86</f>
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>[1]oc_reg!B86</f>
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>[1]oc_reg!D86</f>
@@ -878,7 +880,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]oc_reg!C87</f>
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]oc_reg!E87</f>
@@ -886,7 +888,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]oc_reg!B87</f>
-        <v>0.189</v>
+        <v>0.190</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]oc_reg!D87</f>
@@ -894,11 +896,11 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]oc_reg!F87</f>
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]oc_reg!G87</f>
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -922,11 +924,11 @@
         <f>[1]oc_reg!D88</f>
         <v>0.36</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="10" t="str">
         <f>[1]oc_reg!F88</f>
         <v>-121.9</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">

--- a/Tables/oc_reg.xlsx
+++ b/Tables/oc_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEAD7A-7684-447C-B867-E74A936AE8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666F166-ECBC-41A5-B310-1F12F6A43D98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6816" yWindow="1224" windowWidth="13824" windowHeight="7152" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="oc_reg" sheetId="2" r:id="rId1"/>
@@ -209,22 +209,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.021</v>
+            <v>0.0030</v>
           </cell>
           <cell r="C5" t="str">
             <v>-0.12</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.021</v>
+            <v>-0.043</v>
           </cell>
           <cell r="E5" t="str">
             <v>-0.16</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-29.9</v>
+            <v>-10.7</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-32.3</v>
+            <v>-14.2</v>
           </cell>
         </row>
         <row r="6">
@@ -232,7 +232,7 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.092)</v>
+            <v>(0.094)</v>
           </cell>
           <cell r="C6" t="str">
             <v>(0.067)</v>
@@ -244,30 +244,30 @@
             <v>(0.084)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(9.62)</v>
+            <v>(8.31)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(9.75)</v>
+            <v>(8.32)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>0.53</v>
+            <v>0.55</v>
           </cell>
           <cell r="C83" t="str">
             <v>0.23</v>
           </cell>
           <cell r="D83" t="str">
-            <v>0.52</v>
+            <v>0.54</v>
           </cell>
           <cell r="E83" t="str">
-            <v>0.24</v>
+            <v>0.29</v>
           </cell>
           <cell r="F83" t="str">
             <v>-137.6</v>
           </cell>
           <cell r="G83" t="str">
-            <v>-149.9</v>
+            <v>-154.9</v>
           </cell>
         </row>
         <row r="84">
@@ -278,16 +278,16 @@
             <v>(0.081)</v>
           </cell>
           <cell r="D84" t="str">
-            <v>(0.18)</v>
+            <v>(0.17)</v>
           </cell>
           <cell r="E84" t="str">
             <v>(0.13)</v>
           </cell>
           <cell r="F84" t="str">
-            <v>(14.8)</v>
+            <v>(12.1)</v>
           </cell>
           <cell r="G84" t="str">
-            <v>(16.5)</v>
+            <v>(13.4)</v>
           </cell>
         </row>
         <row r="86">
@@ -327,10 +327,10 @@
             <v>0.162</v>
           </cell>
           <cell r="F87" t="str">
-            <v>0.108</v>
+            <v>0.123</v>
           </cell>
           <cell r="G87" t="str">
-            <v>0.112</v>
+            <v>0.129</v>
           </cell>
         </row>
         <row r="88">
@@ -350,7 +350,7 @@
             <v>0.15</v>
           </cell>
           <cell r="F88" t="str">
-            <v>-121.9</v>
+            <v>-116.3</v>
           </cell>
         </row>
       </sheetData>
@@ -662,12 +662,12 @@
       <selection activeCell="A2" sqref="A2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="str">
         <f>[1]oc_reg!A2</f>
         <v/>
@@ -722,7 +722,7 @@
         <v>(6)</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -736,22 +736,22 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]oc_reg!B5</f>
-        <v>0.021</v>
+        <v>0.0030</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]oc_reg!D5</f>
-        <v>-0.021</v>
+        <v>-0.043</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]oc_reg!F5</f>
-        <v>-29.9</v>
+        <v>-10.7</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]oc_reg!G5</f>
-        <v>-32.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-14.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]oc_reg!A6</f>
         <v/>
@@ -766,7 +766,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]oc_reg!B6</f>
-        <v>(0.092)</v>
+        <v>(0.094)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]oc_reg!D6</f>
@@ -774,14 +774,14 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]oc_reg!F6</f>
-        <v>(9.62)</v>
+        <v>(8.31)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]oc_reg!G6</f>
-        <v>(9.75)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>(8.32)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -791,15 +791,15 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]oc_reg!E83</f>
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]oc_reg!B83</f>
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]oc_reg!D83</f>
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]oc_reg!F83</f>
@@ -807,10 +807,10 @@
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]oc_reg!G83</f>
-        <v>-149.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-154.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]oc_reg!C84</f>
         <v>(0.081)</v>
@@ -825,18 +825,18 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]oc_reg!D84</f>
-        <v>(0.18)</v>
+        <v>(0.17)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]oc_reg!F84</f>
-        <v>(14.8)</v>
+        <v>(12.1)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]oc_reg!G84</f>
-        <v>(16.5)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>(13.4)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -844,7 +844,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]oc_reg!A87</f>
         <v>R-sq</v>
@@ -896,14 +896,14 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]oc_reg!F87</f>
-        <v>0.108</v>
+        <v>0.123</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]oc_reg!G87</f>
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]oc_reg!A88</f>
         <v>Dep. Var. Mean</v>
@@ -926,11 +926,11 @@
       </c>
       <c r="F12" s="10" t="str">
         <f>[1]oc_reg!F88</f>
-        <v>-121.9</v>
+        <v>-116.3</v>
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -953,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F12:G12"/>

--- a/Tables/oc_reg.xlsx
+++ b/Tables/oc_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666F166-ECBC-41A5-B310-1F12F6A43D98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26555E5-B7C7-4BAD-9CD9-DBA745C8B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
+    <workbookView xWindow="-28920" yWindow="-6825" windowWidth="29040" windowHeight="15840" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="oc_reg" sheetId="2" r:id="rId1"/>
@@ -209,22 +209,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.0030</v>
+            <v>0.039</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.12</v>
+            <v>-0.16</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.043</v>
+            <v>0.010</v>
           </cell>
           <cell r="E5" t="str">
             <v>-0.16</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-10.7</v>
+            <v>-129.5</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-14.2</v>
+            <v>-125.0</v>
           </cell>
         </row>
         <row r="6">
@@ -235,7 +235,7 @@
             <v>(0.094)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.067)</v>
+            <v>(0.072)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.14)</v>
@@ -244,30 +244,30 @@
             <v>(0.084)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(8.31)</v>
+            <v>(33.3)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(8.32)</v>
+            <v>(34.6)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>0.55</v>
+            <v>0.61</v>
           </cell>
           <cell r="C83" t="str">
-            <v>0.23</v>
+            <v>0.27</v>
           </cell>
           <cell r="D83" t="str">
-            <v>0.54</v>
+            <v>0.49</v>
           </cell>
           <cell r="E83" t="str">
-            <v>0.29</v>
+            <v>0.24</v>
           </cell>
           <cell r="F83" t="str">
-            <v>-137.6</v>
+            <v>-307.2</v>
           </cell>
           <cell r="G83" t="str">
-            <v>-154.9</v>
+            <v>-289.3</v>
           </cell>
         </row>
         <row r="84">
@@ -275,27 +275,27 @@
             <v>(0.12)</v>
           </cell>
           <cell r="C84" t="str">
-            <v>(0.081)</v>
+            <v>(0.086)</v>
           </cell>
           <cell r="D84" t="str">
-            <v>(0.17)</v>
+            <v>(0.18)</v>
           </cell>
           <cell r="E84" t="str">
             <v>(0.13)</v>
           </cell>
           <cell r="F84" t="str">
-            <v>(12.1)</v>
+            <v>(62.8)</v>
           </cell>
           <cell r="G84" t="str">
-            <v>(13.4)</v>
+            <v>(64.3)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>840</v>
+            <v>845</v>
           </cell>
           <cell r="C86" t="str">
-            <v>1029</v>
+            <v>1040</v>
           </cell>
           <cell r="D86" t="str">
             <v>678</v>
@@ -304,10 +304,10 @@
             <v>781</v>
           </cell>
           <cell r="F86" t="str">
-            <v>1266</v>
+            <v>1265</v>
           </cell>
           <cell r="G86" t="str">
-            <v>1266</v>
+            <v>1265</v>
           </cell>
         </row>
         <row r="87">
@@ -315,10 +315,10 @@
             <v>R-sq</v>
           </cell>
           <cell r="B87" t="str">
-            <v>0.190</v>
+            <v>0.189</v>
           </cell>
           <cell r="C87" t="str">
-            <v>0.138</v>
+            <v>0.137</v>
           </cell>
           <cell r="D87" t="str">
             <v>0.225</v>
@@ -327,10 +327,10 @@
             <v>0.162</v>
           </cell>
           <cell r="F87" t="str">
-            <v>0.123</v>
+            <v>0.042</v>
           </cell>
           <cell r="G87" t="str">
-            <v>0.129</v>
+            <v>0.043</v>
           </cell>
         </row>
         <row r="88">
@@ -350,7 +350,7 @@
             <v>0.15</v>
           </cell>
           <cell r="F88" t="str">
-            <v>-116.3</v>
+            <v>-323.2</v>
           </cell>
         </row>
       </sheetData>
@@ -728,7 +728,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]oc_reg!C5</f>
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]oc_reg!E5</f>
@@ -736,19 +736,19 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]oc_reg!B5</f>
-        <v>0.0030</v>
+        <v>0.039</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]oc_reg!D5</f>
-        <v>-0.043</v>
+        <v>0.010</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]oc_reg!F5</f>
-        <v>-10.7</v>
+        <v>-129.5</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]oc_reg!G5</f>
-        <v>-14.2</v>
+        <v>-125.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -758,7 +758,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]oc_reg!C6</f>
-        <v>(0.067)</v>
+        <v>(0.072)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]oc_reg!E6</f>
@@ -774,11 +774,11 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]oc_reg!F6</f>
-        <v>(8.31)</v>
+        <v>(33.3)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]oc_reg!G6</f>
-        <v>(8.32)</v>
+        <v>(34.6)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -787,33 +787,33 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]oc_reg!C83</f>
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]oc_reg!E83</f>
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]oc_reg!B83</f>
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]oc_reg!D83</f>
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]oc_reg!F83</f>
-        <v>-137.6</v>
+        <v>-307.2</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]oc_reg!G83</f>
-        <v>-154.9</v>
+        <v>-289.3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]oc_reg!C84</f>
-        <v>(0.081)</v>
+        <v>(0.086)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]oc_reg!E84</f>
@@ -825,15 +825,15 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]oc_reg!D84</f>
-        <v>(0.17)</v>
+        <v>(0.18)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]oc_reg!F84</f>
-        <v>(12.1)</v>
+        <v>(62.8)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]oc_reg!G84</f>
-        <v>(13.4)</v>
+        <v>(64.3)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -850,7 +850,7 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>[1]oc_reg!C86</f>
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>[1]oc_reg!E86</f>
@@ -858,7 +858,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f>[1]oc_reg!B86</f>
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>[1]oc_reg!D86</f>
@@ -866,11 +866,11 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>[1]oc_reg!F86</f>
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>[1]oc_reg!G86</f>
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]oc_reg!C87</f>
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]oc_reg!E87</f>
@@ -888,7 +888,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]oc_reg!B87</f>
-        <v>0.190</v>
+        <v>0.189</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]oc_reg!D87</f>
@@ -896,11 +896,11 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]oc_reg!F87</f>
-        <v>0.123</v>
+        <v>0.042</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]oc_reg!G87</f>
-        <v>0.129</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -926,7 +926,7 @@
       </c>
       <c r="F12" s="10" t="str">
         <f>[1]oc_reg!F88</f>
-        <v>-116.3</v>
+        <v>-323.2</v>
       </c>
       <c r="G12" s="10"/>
     </row>

--- a/Tables/oc_reg.xlsx
+++ b/Tables/oc_reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26555E5-B7C7-4BAD-9CD9-DBA745C8B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F69A2-42C4-4826-9DAC-CC41AF37C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6825" windowWidth="29040" windowHeight="15840" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
+    <workbookView xWindow="-26640" yWindow="-8415" windowWidth="21600" windowHeight="11175" xr2:uid="{3D31716B-EE2F-4621-AE96-1D753AE0E1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="oc_reg" sheetId="2" r:id="rId1"/>
@@ -209,22 +209,22 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.039</v>
+            <v>0.021</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.16</v>
+            <v>-0.13</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.010</v>
+            <v>-0.012</v>
           </cell>
           <cell r="E5" t="str">
             <v>-0.16</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-129.5</v>
+            <v>-133.2</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-125.0</v>
+            <v>-129.7</v>
           </cell>
         </row>
         <row r="6">
@@ -232,10 +232,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.094)</v>
+            <v>(0.097)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.072)</v>
+            <v>(0.070)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.14)</v>
@@ -244,30 +244,30 @@
             <v>(0.084)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(33.3)</v>
+            <v>(37.1)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(34.6)</v>
+            <v>(38.7)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>0.61</v>
+            <v>0.62</v>
           </cell>
           <cell r="C83" t="str">
-            <v>0.27</v>
+            <v>0.24</v>
           </cell>
           <cell r="D83" t="str">
-            <v>0.49</v>
+            <v>0.50</v>
           </cell>
           <cell r="E83" t="str">
-            <v>0.24</v>
+            <v>0.18</v>
           </cell>
           <cell r="F83" t="str">
-            <v>-307.2</v>
+            <v>-324.3</v>
           </cell>
           <cell r="G83" t="str">
-            <v>-289.3</v>
+            <v>-306.9</v>
           </cell>
         </row>
         <row r="84">
@@ -275,39 +275,39 @@
             <v>(0.12)</v>
           </cell>
           <cell r="C84" t="str">
-            <v>(0.086)</v>
+            <v>(0.084)</v>
           </cell>
           <cell r="D84" t="str">
-            <v>(0.18)</v>
+            <v>(0.17)</v>
           </cell>
           <cell r="E84" t="str">
-            <v>(0.13)</v>
+            <v>(0.11)</v>
           </cell>
           <cell r="F84" t="str">
-            <v>(62.8)</v>
+            <v>(67.6)</v>
           </cell>
           <cell r="G84" t="str">
-            <v>(64.3)</v>
+            <v>(68.5)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>845</v>
+            <v>838</v>
           </cell>
           <cell r="C86" t="str">
-            <v>1040</v>
+            <v>1024</v>
           </cell>
           <cell r="D86" t="str">
-            <v>678</v>
+            <v>677</v>
           </cell>
           <cell r="E86" t="str">
-            <v>781</v>
+            <v>778</v>
           </cell>
           <cell r="F86" t="str">
-            <v>1265</v>
+            <v>1259</v>
           </cell>
           <cell r="G86" t="str">
-            <v>1265</v>
+            <v>1259</v>
           </cell>
         </row>
         <row r="87">
@@ -318,10 +318,10 @@
             <v>0.189</v>
           </cell>
           <cell r="C87" t="str">
-            <v>0.137</v>
+            <v>0.139</v>
           </cell>
           <cell r="D87" t="str">
-            <v>0.225</v>
+            <v>0.223</v>
           </cell>
           <cell r="E87" t="str">
             <v>0.162</v>
@@ -330,7 +330,7 @@
             <v>0.042</v>
           </cell>
           <cell r="G87" t="str">
-            <v>0.043</v>
+            <v>0.044</v>
           </cell>
         </row>
         <row r="88">
@@ -350,7 +350,7 @@
             <v>0.15</v>
           </cell>
           <cell r="F88" t="str">
-            <v>-323.2</v>
+            <v>-327.4</v>
           </cell>
         </row>
       </sheetData>
@@ -728,7 +728,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]oc_reg!C5</f>
-        <v>-0.16</v>
+        <v>-0.13</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]oc_reg!E5</f>
@@ -736,19 +736,19 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]oc_reg!B5</f>
-        <v>0.039</v>
+        <v>0.021</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]oc_reg!D5</f>
-        <v>0.010</v>
+        <v>-0.012</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]oc_reg!F5</f>
-        <v>-129.5</v>
+        <v>-133.2</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]oc_reg!G5</f>
-        <v>-125.0</v>
+        <v>-129.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -758,7 +758,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]oc_reg!C6</f>
-        <v>(0.072)</v>
+        <v>(0.070)</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]oc_reg!E6</f>
@@ -766,7 +766,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]oc_reg!B6</f>
-        <v>(0.094)</v>
+        <v>(0.097)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]oc_reg!D6</f>
@@ -774,11 +774,11 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]oc_reg!F6</f>
-        <v>(33.3)</v>
+        <v>(37.1)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]oc_reg!G6</f>
-        <v>(34.6)</v>
+        <v>(38.7)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -787,37 +787,37 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]oc_reg!C83</f>
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]oc_reg!E83</f>
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]oc_reg!B83</f>
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]oc_reg!D83</f>
-        <v>0.49</v>
+        <v>0.50</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]oc_reg!F83</f>
-        <v>-307.2</v>
+        <v>-324.3</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]oc_reg!G83</f>
-        <v>-289.3</v>
+        <v>-306.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="str">
         <f>[1]oc_reg!C84</f>
-        <v>(0.086)</v>
+        <v>(0.084)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]oc_reg!E84</f>
-        <v>(0.13)</v>
+        <v>(0.11)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]oc_reg!B84</f>
@@ -825,15 +825,15 @@
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]oc_reg!D84</f>
-        <v>(0.18)</v>
+        <v>(0.17)</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>[1]oc_reg!F84</f>
-        <v>(62.8)</v>
+        <v>(67.6)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]oc_reg!G84</f>
-        <v>(64.3)</v>
+        <v>(68.5)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -850,27 +850,27 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>[1]oc_reg!C86</f>
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>[1]oc_reg!E86</f>
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>[1]oc_reg!B86</f>
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>[1]oc_reg!D86</f>
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F10" s="7" t="str">
         <f>[1]oc_reg!F86</f>
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>[1]oc_reg!G86</f>
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>[1]oc_reg!C87</f>
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]oc_reg!E87</f>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]oc_reg!D87</f>
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>[1]oc_reg!F87</f>
@@ -900,7 +900,7 @@
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]oc_reg!G87</f>
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -926,7 +926,7 @@
       </c>
       <c r="F12" s="10" t="str">
         <f>[1]oc_reg!F88</f>
-        <v>-323.2</v>
+        <v>-327.4</v>
       </c>
       <c r="G12" s="10"/>
     </row>
